--- a/media/uploaded_excel/MOCK_DATA.xlsx
+++ b/media/uploaded_excel/MOCK_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyadw\Desktop\Django_Projects\todoapp\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38707F15-59EA-463E-8CD5-BC7267027A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8DE30-5DBA-44F7-913C-AF26623777A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Job Description</t>
-  </si>
-  <si>
     <t>Blair Smyley</t>
   </si>
   <si>
@@ -92,6 +80,18 @@
   </si>
   <si>
     <t>jforrest5@cam.ac.uk</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,100 +457,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
